--- a/System_development/Pelican/structural_model/V3.0/BOM/BOM.xlsx
+++ b/System_development/Pelican/structural_model/V3.0/BOM/BOM.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEE561AE-8B42-4C0F-B0E8-D4E625CB3643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/matthew_burnett_sc_edu/Documents/UAV/SWIFT-UAV/System_development/Pelican/structural_model/V3.0/BOM/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{EEE561AE-8B42-4C0F-B0E8-D4E625CB3643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{302CE737-4015-41E1-8A07-CEF5D502576E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -90,9 +96,6 @@
     <t>Propeller</t>
   </si>
   <si>
-    <t>wait</t>
-  </si>
-  <si>
     <t>Pitot</t>
   </si>
   <si>
@@ -127,6 +130,177 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Number of Cells</t>
+  </si>
+  <si>
+    <t>Lift Force (N)</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>AOA (degrees)</t>
+  </si>
+  <si>
+    <t>Lift (N)</t>
+  </si>
+  <si>
+    <t>Speed (m/s)</t>
+  </si>
+  <si>
+    <t>(AOA 3)</t>
+  </si>
+  <si>
+    <t>(AOA 2)</t>
+  </si>
+  <si>
+    <t>Variations</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>AOA (deg)</t>
+  </si>
+  <si>
+    <t>Flight Velocity (m/s)</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Drag Force (N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~ 20kg of lift </t>
+  </si>
+  <si>
+    <t>Assume</t>
+  </si>
+  <si>
+    <t>20kgf lift</t>
+  </si>
+  <si>
+    <t>3 kgf drag</t>
+  </si>
+  <si>
+    <t>L/D ratio</t>
+  </si>
+  <si>
+    <t>(cesna is 9 for context)</t>
+  </si>
+  <si>
+    <t>Very conservative estimate (will likley be closer to 2kgf)</t>
+  </si>
+  <si>
+    <t>Engine sizing</t>
+  </si>
+  <si>
+    <t>Config 1</t>
+  </si>
+  <si>
+    <t>10S 19x10</t>
+  </si>
+  <si>
+    <t>Cruise @</t>
+  </si>
+  <si>
+    <t>11 Amps</t>
+  </si>
+  <si>
+    <t>12S 19x10</t>
+  </si>
+  <si>
+    <t>Max thrust (TWR)</t>
+  </si>
+  <si>
+    <t>9.1 Amps</t>
+  </si>
+  <si>
+    <t>Config 2</t>
+  </si>
+  <si>
+    <t>Config 3</t>
+  </si>
+  <si>
+    <t>Config 4</t>
+  </si>
+  <si>
+    <t>10S 20x10</t>
+  </si>
+  <si>
+    <t>12S 20x10</t>
+  </si>
+  <si>
+    <t>10.1 Amps</t>
+  </si>
+  <si>
+    <t>Config 5</t>
+  </si>
+  <si>
+    <t>Config 6</t>
+  </si>
+  <si>
+    <t>10S 21x10</t>
+  </si>
+  <si>
+    <t>12S 21x10</t>
+  </si>
+  <si>
+    <t>8.6 Amps</t>
+  </si>
+  <si>
+    <t>8 Amps</t>
+  </si>
+  <si>
+    <t>Battey sizing</t>
+  </si>
+  <si>
+    <t>Clearly 21x10 prop</t>
+  </si>
+  <si>
+    <t>Target 1hr cruise</t>
+  </si>
+  <si>
+    <t>assume 120% cruise capacity for take of and landing use</t>
+  </si>
+  <si>
+    <t>Config 5 10S</t>
+  </si>
+  <si>
+    <t>Ah</t>
+  </si>
+  <si>
+    <t>Battery weight</t>
+  </si>
+  <si>
+    <t>Config 6 12S</t>
+  </si>
+  <si>
+    <t>1Kg</t>
+  </si>
+  <si>
+    <t>https://zeeebattery.com/collections/zeee-6s-lipo-battery/products/zeee-6s-lipo-battery-10000mah-22-2v-120c-ec5</t>
+  </si>
+  <si>
+    <t>* currently on sale for 306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Still need TX RX  Remote ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALWAYS HAVE A SPARE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs to be a </t>
+  </si>
+  <si>
+    <t>*separate into must haves to fly and extra credit</t>
   </si>
 </sst>
 </file>
@@ -136,7 +310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,8 +332,36 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +371,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,7 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -327,10 +547,25 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -350,9 +585,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -390,7 +625,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -496,7 +731,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -638,7 +873,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -646,13 +881,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F27"/>
+  <dimension ref="B2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:F13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -660,7 +895,7 @@
     <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,7 +912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -694,7 +929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -712,7 +947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -730,7 +965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -748,7 +983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -765,7 +1000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
@@ -777,7 +1012,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -792,7 +1027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
@@ -810,7 +1045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
@@ -828,7 +1063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
@@ -846,27 +1081,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="21" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="22">
-        <v>1</v>
-      </c>
-      <c r="D13" s="23">
-        <v>0</v>
-      </c>
-      <c r="E13" s="23">
+      <c r="C13" s="32">
+        <v>2</v>
+      </c>
+      <c r="D13" s="30">
+        <v>79</v>
+      </c>
+      <c r="E13" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -882,9 +1120,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -900,9 +1138,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -918,45 +1156,50 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="4">
-        <v>454</v>
+      <c r="D17" s="33">
+        <v>429.99</v>
       </c>
       <c r="E17" s="4">
-        <f>C17*D17</f>
-        <v>454</v>
+        <v>429.99</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="G17" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="35">
         <v>1</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="36">
         <v>12.4</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="36">
         <f t="shared" si="0"/>
         <v>12.4</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -972,9 +1215,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -990,9 +1233,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -1008,9 +1251,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -1026,9 +1269,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3">
         <v>5</v>
@@ -1044,9 +1287,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
@@ -1060,7 +1303,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="D25" s="10">
         <v>0</v>
@@ -1071,24 +1314,34 @@
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19+E20+E23+E24+E25</f>
-        <v>1341.14</v>
+        <v>1475.13</v>
       </c>
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="18"/>
       <c r="E27" s="19"/>
       <c r="F27" s="20"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1107,7 +1360,629 @@
     <hyperlink ref="F23" r:id="rId13" xr:uid="{86AB800F-E620-40CF-BB38-61A94372CE0B}"/>
     <hyperlink ref="F17" r:id="rId14" xr:uid="{4979DAA9-0DE4-4CD4-A552-4B0CB015F101}"/>
     <hyperlink ref="F11" r:id="rId15" xr:uid="{911A5C91-D8B3-4AB1-8185-25D0807F0DE3}"/>
+    <hyperlink ref="F13" r:id="rId16" xr:uid="{98AA6020-6FB8-4460-946E-E6098C8EEBCE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3728BCD-5B31-4AFB-8140-1A9E8488487E}">
+  <dimension ref="A1:P45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1893987</v>
+      </c>
+      <c r="B2">
+        <v>86.1</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="E2" s="21">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="I2">
+        <v>83.2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3632193</v>
+      </c>
+      <c r="B3">
+        <v>84.74</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="E3" s="21">
+        <v>1.49E-2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
+      </c>
+      <c r="L3">
+        <v>191.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6292121</v>
+      </c>
+      <c r="B4">
+        <v>83.42</v>
+      </c>
+      <c r="D4">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>25</v>
+      </c>
+      <c r="L4">
+        <v>131.77000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="I5">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="I7">
+        <v>85.1</v>
+      </c>
+      <c r="K7">
+        <v>25</v>
+      </c>
+      <c r="L7">
+        <v>131.82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>0.40239999999999998</v>
+      </c>
+      <c r="D11">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="E11">
+        <v>-6.1899999999999997E-2</v>
+      </c>
+      <c r="F11">
+        <v>84.790999999999997</v>
+      </c>
+      <c r="G11">
+        <v>9.8819999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>0.40460000000000002</v>
+      </c>
+      <c r="D12">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="E12">
+        <v>-6.2300000000000001E-2</v>
+      </c>
+      <c r="F12">
+        <v>85.239000000000004</v>
+      </c>
+      <c r="G12">
+        <v>9.8780000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>0.40039999999999998</v>
+      </c>
+      <c r="D13">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="E13">
+        <v>-6.0900000000000003E-2</v>
+      </c>
+      <c r="F13">
+        <v>131.82599999999999</v>
+      </c>
+      <c r="G13">
+        <v>14.999000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>0.39560000000000001</v>
+      </c>
+      <c r="D14">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="E14">
+        <v>-6.0299999999999999E-2</v>
+      </c>
+      <c r="F14">
+        <v>83.346000000000004</v>
+      </c>
+      <c r="G14">
+        <v>9.7579999999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>0.40029999999999999</v>
+      </c>
+      <c r="D15">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="E15">
+        <v>-6.0999999999999999E-2</v>
+      </c>
+      <c r="F15">
+        <v>131.77600000000001</v>
+      </c>
+      <c r="G15">
+        <v>15.022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>3</v>
+      </c>
+      <c r="B16" s="22">
+        <v>30</v>
+      </c>
+      <c r="C16" s="22">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="D16" s="22">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="E16" s="22">
+        <v>-6.1400000000000003E-2</v>
+      </c>
+      <c r="F16" s="22">
+        <v>191.072</v>
+      </c>
+      <c r="G16" s="22">
+        <v>21.39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>0.40389999999999998</v>
+      </c>
+      <c r="D17">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E17">
+        <v>-6.2300000000000001E-2</v>
+      </c>
+      <c r="F17">
+        <v>85.094999999999999</v>
+      </c>
+      <c r="G17">
+        <v>9.8930000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E22" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f>20/3</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="26"/>
+      <c r="L25" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I27">
+        <v>11.74</v>
+      </c>
+      <c r="L27" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="N27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28">
+        <f>10.7/20</f>
+        <v>0.53499999999999992</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28">
+        <f>11.675/20</f>
+        <v>0.58374999999999999</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="L28" s="24"/>
+      <c r="M28">
+        <f>13.3/20</f>
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" t="s">
+        <v>65</v>
+      </c>
+      <c r="L30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="I31" t="s">
+        <v>66</v>
+      </c>
+      <c r="L31" t="s">
+        <v>56</v>
+      </c>
+      <c r="M31" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32">
+        <f>12.4/20</f>
+        <v>0.62</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="24"/>
+      <c r="H32">
+        <f>13.176/20</f>
+        <v>0.65880000000000005</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="L32" s="24"/>
+      <c r="M32">
+        <f>14.8/20</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>8 *1.2</f>
+        <v>9.6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="28">
+        <f>8.6*1.2</f>
+        <v>10.319999999999999</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K32:L32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/System_development/Pelican/structural_model/V3.0/BOM/BOM.xlsx
+++ b/System_development/Pelican/structural_model/V3.0/BOM/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/matthew_burnett_sc_edu/Documents/UAV/SWIFT-UAV/System_development/Pelican/structural_model/V3.0/BOM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\SWIFT-UAV\System_development\Pelican\structural_model\V3.0\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="8_{EEE561AE-8B42-4C0F-B0E8-D4E625CB3643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{302CE737-4015-41E1-8A07-CEF5D502576E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E60B227-E426-4444-AF42-24E6A80576BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -105,9 +105,6 @@
     <t>GPS</t>
   </si>
   <si>
-    <t>LiPo 12s Battery</t>
-  </si>
-  <si>
     <t>Voltage step down</t>
   </si>
   <si>
@@ -291,16 +288,40 @@
     <t>* currently on sale for 306</t>
   </si>
   <si>
-    <t xml:space="preserve">*Still need TX RX  Remote ID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALWAYS HAVE A SPARE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Needs to be a </t>
-  </si>
-  <si>
     <t>*separate into must haves to fly and extra credit</t>
+  </si>
+  <si>
+    <t>Description + Specificers + Manufactuerer Name</t>
+  </si>
+  <si>
+    <t>LiPo 6s Battery</t>
+  </si>
+  <si>
+    <t>Remote ID Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TX </t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>Holy Bros</t>
+  </si>
+  <si>
+    <t>MAD Components</t>
+  </si>
+  <si>
+    <t>MAD Components (Includes Spare)</t>
+  </si>
+  <si>
+    <t>* currently on sale for 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voltage Step Down </t>
+  </si>
+  <si>
+    <t>*on sale for 10.72</t>
   </si>
 </sst>
 </file>
@@ -310,7 +331,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,13 +369,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -550,22 +564,24 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -881,21 +897,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G34"/>
+  <dimension ref="B2:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="86" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -911,8 +928,11 @@
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -929,7 +949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -947,7 +967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -965,7 +985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -983,7 +1003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1000,7 +1020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1012,7 +1032,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1021,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="4">
-        <v>11.99</v>
+        <v>1.6</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1038,14 +1058,14 @@
         <v>9.68</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:E25" si="0">C10*D10</f>
+        <f t="shared" ref="E10:E29" si="0">C10*D10</f>
         <v>29.04</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
@@ -1062,8 +1082,11 @@
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1080,29 +1103,32 @@
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="29">
         <v>2</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="4">
         <v>79</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="4">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1119,8 +1145,11 @@
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1138,7 +1167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1156,14 +1185,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="30">
         <v>429.99</v>
       </c>
       <c r="E17" s="4">
@@ -1173,174 +1202,243 @@
         <v>12</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="30">
+        <v>12.47</v>
+      </c>
+      <c r="E18" s="30">
+        <v>12.47</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="32">
+        <v>1</v>
+      </c>
+      <c r="D19" s="33">
+        <v>6.29</v>
+      </c>
+      <c r="E19" s="33">
+        <f t="shared" si="0"/>
+        <v>6.29</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C20" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="36">
-        <v>12.4</v>
-      </c>
-      <c r="E18" s="36">
-        <f t="shared" si="0"/>
-        <v>12.4</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="D20" s="4">
         <v>65</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3">
         <v>1</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D21" s="4">
         <v>50.99</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="4">
         <f t="shared" si="0"/>
         <v>50.99</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3">
         <v>1</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D22" s="4">
         <v>25</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="3">
         <v>1</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D23" s="4">
         <v>175</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="4">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>40</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>209.99</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
+        <v>209.99</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>64.989999999999995</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>64.989999999999995</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="3">
         <v>5</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D27" s="4">
         <v>12.57</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E27" s="4">
         <f t="shared" si="0"/>
         <v>62.85</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="3">
         <v>2</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D28" s="4">
         <v>0</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E28" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="D25" s="10">
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="9"/>
+      <c r="D29" s="10">
         <v>0</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E29" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14">
-        <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19+E20+E23+E24+E25</f>
-        <v>1475.13</v>
-      </c>
-      <c r="F26" s="15"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>87</v>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14">
+        <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E19+E20+E21+E27+E28+E29</f>
+        <v>1458.6299999999999</v>
+      </c>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1352,15 +1450,19 @@
     <hyperlink ref="F15" r:id="rId5" xr:uid="{8992FE28-6784-4F18-9B63-E00F66F2A28F}"/>
     <hyperlink ref="F16" r:id="rId6" xr:uid="{59CC5F45-8335-40DE-961E-8463A3E160DB}"/>
     <hyperlink ref="F12" r:id="rId7" xr:uid="{7E274883-FA02-406F-ACE9-EFEFA86E6595}"/>
-    <hyperlink ref="F19" r:id="rId8" xr:uid="{94E9850C-DF23-422A-8457-F1956EE0C804}"/>
-    <hyperlink ref="F20" r:id="rId9" xr:uid="{E68054EE-37AD-4220-AA45-82C39E9B7EA3}"/>
-    <hyperlink ref="F21" r:id="rId10" xr:uid="{FB177922-EC3C-416E-934B-E875EF3F7A9D}"/>
-    <hyperlink ref="F18" r:id="rId11" xr:uid="{0699F5B4-DB8F-486B-B90D-447368C88221}"/>
-    <hyperlink ref="F22" r:id="rId12" xr:uid="{41E73CF8-F057-49FF-A8E0-EF718DC180BD}"/>
-    <hyperlink ref="F23" r:id="rId13" xr:uid="{86AB800F-E620-40CF-BB38-61A94372CE0B}"/>
+    <hyperlink ref="F20" r:id="rId8" xr:uid="{94E9850C-DF23-422A-8457-F1956EE0C804}"/>
+    <hyperlink ref="F21" r:id="rId9" xr:uid="{E68054EE-37AD-4220-AA45-82C39E9B7EA3}"/>
+    <hyperlink ref="F22" r:id="rId10" xr:uid="{FB177922-EC3C-416E-934B-E875EF3F7A9D}"/>
+    <hyperlink ref="F19" r:id="rId11" xr:uid="{0699F5B4-DB8F-486B-B90D-447368C88221}"/>
+    <hyperlink ref="F23" r:id="rId12" xr:uid="{41E73CF8-F057-49FF-A8E0-EF718DC180BD}"/>
+    <hyperlink ref="F27" r:id="rId13" xr:uid="{86AB800F-E620-40CF-BB38-61A94372CE0B}"/>
     <hyperlink ref="F17" r:id="rId14" xr:uid="{4979DAA9-0DE4-4CD4-A552-4B0CB015F101}"/>
     <hyperlink ref="F11" r:id="rId15" xr:uid="{911A5C91-D8B3-4AB1-8185-25D0807F0DE3}"/>
     <hyperlink ref="F13" r:id="rId16" xr:uid="{98AA6020-6FB8-4460-946E-E6098C8EEBCE}"/>
+    <hyperlink ref="F24" r:id="rId17" xr:uid="{501DF335-E63E-4ABF-A2A7-89788F96C35E}"/>
+    <hyperlink ref="F25" r:id="rId18" xr:uid="{9D2A6FD4-3C77-4737-912E-BEF3795832A8}"/>
+    <hyperlink ref="F26" r:id="rId19" xr:uid="{D0D84AEC-0FC6-4B1F-A180-98C507502261}"/>
+    <hyperlink ref="F18" r:id="rId20" xr:uid="{195CFA32-A79D-41A9-AC7D-D4DEE63B0612}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1370,42 +1472,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3728BCD-5B31-4AFB-8140-1A9E8488487E}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
       <c r="L1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1893987</v>
       </c>
@@ -1431,10 +1533,10 @@
         <v>83.2</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3632193</v>
       </c>
@@ -1460,7 +1562,7 @@
         <v>191.1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6292121</v>
       </c>
@@ -1480,7 +1582,7 @@
         <v>131.77000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G5">
         <v>3</v>
       </c>
@@ -1491,15 +1593,15 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G6">
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G7">
         <v>5</v>
       </c>
@@ -1516,38 +1618,38 @@
         <v>131.82</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1570,7 +1672,7 @@
         <v>9.8819999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1593,7 +1695,7 @@
         <v>9.8780000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1616,7 +1718,7 @@
         <v>14.999000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1639,7 +1741,7 @@
         <v>9.7579999999999991</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1662,7 +1764,7 @@
         <v>15.022</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>3</v>
       </c>
@@ -1685,10 +1787,10 @@
         <v>21.39</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1711,266 +1813,266 @@
         <v>9.8930000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E22" s="23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="23" t="s">
-        <v>49</v>
-      </c>
       <c r="F22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E23">
         <f>20/3</f>
         <v>6.666666666666667</v>
       </c>
       <c r="F23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" t="s">
         <v>50</v>
       </c>
-      <c r="G23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="L25" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="G25" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25" s="26"/>
-      <c r="L25" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="G26" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>55</v>
       </c>
-      <c r="G26" t="s">
-        <v>64</v>
-      </c>
-      <c r="L26" t="s">
-        <v>69</v>
-      </c>
-      <c r="P26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="C27" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D27" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
       <c r="G27" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="25">
+        <v>55</v>
+      </c>
+      <c r="H27" s="24">
         <v>0.5</v>
       </c>
       <c r="I27">
         <v>11.74</v>
       </c>
       <c r="L27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="25">
+        <v>55</v>
+      </c>
+      <c r="M27" s="24">
         <v>0.45</v>
       </c>
       <c r="N27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="24"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="34"/>
       <c r="C28">
         <f>10.7/20</f>
         <v>0.53499999999999992</v>
       </c>
-      <c r="F28" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="24"/>
+      <c r="F28" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="34"/>
       <c r="H28">
         <f>11.675/20</f>
         <v>0.58374999999999999</v>
       </c>
-      <c r="K28" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="L28" s="24"/>
+      <c r="K28" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="34"/>
       <c r="M28">
         <f>13.3/20</f>
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
-      </c>
-      <c r="L29" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="L29" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="I31" t="s">
+        <v>65</v>
+      </c>
+      <c r="L31" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="G30" t="s">
-        <v>65</v>
-      </c>
-      <c r="L30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="25">
-        <v>0.45</v>
-      </c>
-      <c r="D31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" s="25">
-        <v>0.45</v>
-      </c>
-      <c r="I31" t="s">
-        <v>66</v>
-      </c>
-      <c r="L31" t="s">
-        <v>56</v>
-      </c>
-      <c r="M31" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="N31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="24"/>
+      <c r="B32" s="34"/>
       <c r="C32">
         <f>12.4/20</f>
         <v>0.62</v>
       </c>
-      <c r="F32" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="24"/>
+      <c r="F32" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="34"/>
       <c r="H32">
         <f>13.176/20</f>
         <v>0.65880000000000005</v>
       </c>
-      <c r="K32" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="L32" s="24"/>
+      <c r="K32" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" s="34"/>
       <c r="M32">
         <f>14.8/20</f>
         <v>0.74</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>77</v>
-      </c>
       <c r="C39" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <f>8 *1.2</f>
         <v>9.6</v>
       </c>
       <c r="B40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="28">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="27">
         <f>8.6*1.2</f>
         <v>10.319999999999999</v>
       </c>
-      <c r="B43" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="28" t="s">
+      <c r="B43" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/System_development/Pelican/structural_model/V3.0/BOM/BOM.xlsx
+++ b/System_development/Pelican/structural_model/V3.0/BOM/BOM.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\SWIFT-UAV\System_development\Pelican\structural_model\V3.0\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E60B227-E426-4444-AF42-24E6A80576BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CFB75F-51B9-43AE-8AA6-13C529ACA0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="3360" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Needed" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="94">
   <si>
     <t>Name</t>
   </si>
@@ -72,9 +73,6 @@
     <t>Aluminum 20x20</t>
   </si>
   <si>
-    <t>5m</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -105,27 +103,18 @@
     <t>GPS</t>
   </si>
   <si>
-    <t>Voltage step down</t>
-  </si>
-  <si>
     <t>ESC</t>
   </si>
   <si>
     <t>KST DS215MG</t>
   </si>
   <si>
-    <t>PDB</t>
-  </si>
-  <si>
     <t>Telemetry Radio</t>
   </si>
   <si>
     <t>Wire Extensions</t>
   </si>
   <si>
-    <t>M6 + Grommet</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -294,9 +283,6 @@
     <t>Description + Specificers + Manufactuerer Name</t>
   </si>
   <si>
-    <t>LiPo 6s Battery</t>
-  </si>
-  <si>
     <t>Remote ID Module</t>
   </si>
   <si>
@@ -306,22 +292,34 @@
     <t>RX</t>
   </si>
   <si>
-    <t>Holy Bros</t>
-  </si>
-  <si>
-    <t>MAD Components</t>
-  </si>
-  <si>
-    <t>MAD Components (Includes Spare)</t>
-  </si>
-  <si>
-    <t>* currently on sale for 33</t>
-  </si>
-  <si>
     <t xml:space="preserve">Voltage Step Down </t>
   </si>
   <si>
-    <t>*on sale for 10.72</t>
+    <t>6 m</t>
+  </si>
+  <si>
+    <t>LiPo 6s Battery (two pack)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spare Required </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAA Required </t>
+  </si>
+  <si>
+    <t>KST DS215MG Servo</t>
+  </si>
+  <si>
+    <t>Running Low</t>
+  </si>
+  <si>
+    <t>Currently on sale for 306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can order at </t>
   </si>
 </sst>
 </file>
@@ -402,12 +400,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -510,12 +508,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -523,14 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,20 +587,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -897,22 +949,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H38"/>
+  <dimension ref="B2:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="86" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="26.21875" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="53.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -928,11 +980,12 @@
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -945,11 +998,12 @@
       <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -963,11 +1017,12 @@
         <f>C4*D4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G4" s="40"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -981,11 +1036,12 @@
         <f>C5*D5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -999,30 +1055,34 @@
         <f>C6*D6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="30">
         <v>0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="30">
         <v>57.9</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
@@ -1030,11 +1090,11 @@
         <f>C8*D8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4">
@@ -1043,13 +1103,14 @@
       <c r="E9" s="4">
         <v>1.6</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F9" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
@@ -1058,16 +1119,17 @@
         <v>9.68</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:E29" si="0">C10*D10</f>
+        <f t="shared" ref="E10:E26" si="0">C10*D10</f>
         <v>29.04</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>16</v>
+      <c r="F10" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -1079,16 +1141,17 @@
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F11" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1100,18 +1163,16 @@
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F12" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="29">
+        <v>17</v>
+      </c>
+      <c r="C13" s="23">
         <v>2</v>
       </c>
       <c r="D13" s="4">
@@ -1121,16 +1182,16 @@
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="F13" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F13" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1142,34 +1203,33 @@
         <f t="shared" si="0"/>
         <v>49.99</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="F14" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="29">
+        <v>1</v>
+      </c>
+      <c r="D15" s="30">
         <v>33.99</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="30">
         <f t="shared" si="0"/>
         <v>33.99</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F15" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1181,288 +1241,242 @@
         <f t="shared" si="0"/>
         <v>43.99</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F16" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="26">
         <v>429.99</v>
       </c>
       <c r="E17" s="4">
         <v>429.99</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="30">
-        <v>12.47</v>
-      </c>
-      <c r="E18" s="30">
-        <v>12.47</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="32">
-        <v>1</v>
-      </c>
-      <c r="D19" s="33">
-        <v>6.29</v>
-      </c>
-      <c r="E19" s="33">
-        <f t="shared" si="0"/>
-        <v>6.29</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="F17" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="29">
+        <v>1</v>
+      </c>
+      <c r="D18" s="25">
+        <v>24.99</v>
+      </c>
+      <c r="E18" s="25">
+        <v>24.99</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
         <v>65</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E19" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
-        <v>24</v>
+      <c r="F19" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="29">
+        <v>4</v>
+      </c>
+      <c r="D20" s="30">
+        <v>22.99</v>
+      </c>
+      <c r="E20" s="30">
+        <f t="shared" si="0"/>
+        <v>91.96</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" s="4">
-        <v>50.99</v>
+        <v>175</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="0"/>
-        <v>50.99</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
-        <v>25</v>
+        <v>175</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
       <c r="D22" s="4">
-        <v>25</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
-        <v>26</v>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23" s="4">
-        <v>175</v>
+        <v>209.99</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
-        <v>86</v>
+        <v>209.99</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24" s="4">
-        <v>40</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
-        <v>87</v>
+        <v>64.989999999999995</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C25" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D25" s="4">
-        <v>209.99</v>
+        <v>12.57</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="0"/>
-        <v>209.99</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
+        <v>62.85</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="4">
-        <v>64.989999999999995</v>
+        <v>0</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>64.989999999999995</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="3">
-        <v>5</v>
-      </c>
-      <c r="D27" s="4">
-        <v>12.57</v>
-      </c>
-      <c r="E27" s="4">
-        <f t="shared" si="0"/>
-        <v>62.85</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2</v>
-      </c>
-      <c r="D28" s="4">
         <v>0</v>
       </c>
-      <c r="E28" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="9"/>
-      <c r="D29" s="10">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14">
-        <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E19+E20+E21+E27+E28+E29</f>
-        <v>1458.6299999999999</v>
-      </c>
-      <c r="F30" s="15"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>83</v>
+      <c r="F26" s="3"/>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9">
+        <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E21+E19+E20+E25+E26+E22+E23+E24+E18</f>
+        <v>1988.27</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" xr:uid="{C709628D-9EAF-4C62-B23B-E3A3787AACCF}"/>
-    <hyperlink ref="F9" r:id="rId2" xr:uid="{F7D01AF4-A1F3-4ED6-9884-04F24B5EAB69}"/>
-    <hyperlink ref="F10" r:id="rId3" xr:uid="{20D5A467-EA2F-4C11-9A65-9FACE515A367}"/>
-    <hyperlink ref="F14" r:id="rId4" xr:uid="{8945BA57-6151-4CE8-979F-C598EBB58373}"/>
-    <hyperlink ref="F15" r:id="rId5" xr:uid="{8992FE28-6784-4F18-9B63-E00F66F2A28F}"/>
-    <hyperlink ref="F16" r:id="rId6" xr:uid="{59CC5F45-8335-40DE-961E-8463A3E160DB}"/>
-    <hyperlink ref="F12" r:id="rId7" xr:uid="{7E274883-FA02-406F-ACE9-EFEFA86E6595}"/>
-    <hyperlink ref="F20" r:id="rId8" xr:uid="{94E9850C-DF23-422A-8457-F1956EE0C804}"/>
-    <hyperlink ref="F21" r:id="rId9" xr:uid="{E68054EE-37AD-4220-AA45-82C39E9B7EA3}"/>
-    <hyperlink ref="F22" r:id="rId10" xr:uid="{FB177922-EC3C-416E-934B-E875EF3F7A9D}"/>
-    <hyperlink ref="F19" r:id="rId11" xr:uid="{0699F5B4-DB8F-486B-B90D-447368C88221}"/>
-    <hyperlink ref="F23" r:id="rId12" xr:uid="{41E73CF8-F057-49FF-A8E0-EF718DC180BD}"/>
-    <hyperlink ref="F27" r:id="rId13" xr:uid="{86AB800F-E620-40CF-BB38-61A94372CE0B}"/>
-    <hyperlink ref="F17" r:id="rId14" xr:uid="{4979DAA9-0DE4-4CD4-A552-4B0CB015F101}"/>
-    <hyperlink ref="F11" r:id="rId15" xr:uid="{911A5C91-D8B3-4AB1-8185-25D0807F0DE3}"/>
-    <hyperlink ref="F13" r:id="rId16" xr:uid="{98AA6020-6FB8-4460-946E-E6098C8EEBCE}"/>
-    <hyperlink ref="F24" r:id="rId17" xr:uid="{501DF335-E63E-4ABF-A2A7-89788F96C35E}"/>
-    <hyperlink ref="F25" r:id="rId18" xr:uid="{9D2A6FD4-3C77-4737-912E-BEF3795832A8}"/>
-    <hyperlink ref="F26" r:id="rId19" xr:uid="{D0D84AEC-0FC6-4B1F-A180-98C507502261}"/>
-    <hyperlink ref="F18" r:id="rId20" xr:uid="{195CFA32-A79D-41A9-AC7D-D4DEE63B0612}"/>
+    <hyperlink ref="F9" r:id="rId1" xr:uid="{F9524003-EAAA-47EF-AE40-A7AD235217C9}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{B252901B-3178-4B76-9815-7139A1A079DC}"/>
+    <hyperlink ref="F14" r:id="rId3" xr:uid="{D4965E58-DD08-43E9-A8EC-B130D5F940D0}"/>
+    <hyperlink ref="F15" r:id="rId4" xr:uid="{129E9C48-2CFF-4D9A-9F4E-5A0633CBB70B}"/>
+    <hyperlink ref="F16" r:id="rId5" xr:uid="{5D413168-BEAA-4333-AB09-19B4E719F6A2}"/>
+    <hyperlink ref="F12" r:id="rId6" xr:uid="{BB3C8825-36BF-4BC1-84DE-CCBE51B2A053}"/>
+    <hyperlink ref="F19" r:id="rId7" xr:uid="{55023AC4-49D2-44F2-8A20-A2A7700AF1E5}"/>
+    <hyperlink ref="F20" r:id="rId8" xr:uid="{27534EA9-3DE6-41F0-BB8A-F65B8EF92DA3}"/>
+    <hyperlink ref="F21" r:id="rId9" xr:uid="{D3E47236-FA8B-4628-9003-2EDFA1AFB38B}"/>
+    <hyperlink ref="F25" r:id="rId10" xr:uid="{D842F22B-8DB0-465D-9BF9-8DA8407619BD}"/>
+    <hyperlink ref="F17" r:id="rId11" xr:uid="{1E60939D-5DC1-4FFF-86F6-EF9844D91359}"/>
+    <hyperlink ref="F11" r:id="rId12" xr:uid="{B1244471-3C2C-4D52-8F19-88D4FE676E04}"/>
+    <hyperlink ref="F13" r:id="rId13" xr:uid="{FE97CBFB-C066-45F0-AB71-C7796DE82E5B}"/>
+    <hyperlink ref="F22" r:id="rId14" xr:uid="{B555FEF5-A423-4DD1-8F46-56342DD22D7D}"/>
+    <hyperlink ref="F23" r:id="rId15" xr:uid="{CF45FBC0-39FB-458F-88AE-CBD1559863F3}"/>
+    <hyperlink ref="F24" r:id="rId16" xr:uid="{5FE34E3F-90FF-4453-8DA1-B110E2BC64DE}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{EB494C7E-246C-47BB-B4DE-6822347FC6E5}"/>
+    <hyperlink ref="G7" r:id="rId18" display="Link" xr:uid="{0967E9A6-AA39-4ECE-8CCD-8D06ED4CF238}"/>
+    <hyperlink ref="F7" r:id="rId19" xr:uid="{D47B23DF-137D-4A17-96D8-17B13B217EF0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1476,51 +1490,51 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
       <c r="L1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1893987</v>
       </c>
       <c r="B2">
         <v>86.1</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="16">
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="D2">
         <v>0.40899999999999997</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="16">
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="G2">
@@ -1533,23 +1547,23 @@
         <v>83.2</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3632193</v>
       </c>
       <c r="B3">
         <v>84.74</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="16">
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="D3">
         <v>0.40200000000000002</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="16">
         <v>1.49E-2</v>
       </c>
       <c r="G3">
@@ -1562,7 +1576,7 @@
         <v>191.1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6292121</v>
       </c>
@@ -1582,7 +1596,7 @@
         <v>131.77000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G5">
         <v>3</v>
       </c>
@@ -1593,15 +1607,15 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G6">
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G7">
         <v>5</v>
       </c>
@@ -1618,38 +1632,38 @@
         <v>131.82</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1672,7 +1686,7 @@
         <v>9.8819999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1695,7 +1709,7 @@
         <v>9.8780000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1718,7 +1732,7 @@
         <v>14.999000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1741,7 +1755,7 @@
         <v>9.7579999999999991</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1764,33 +1778,33 @@
         <v>15.022</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="22">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
         <v>3</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="17">
         <v>30</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="17">
         <v>0.40300000000000002</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="17">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="17">
         <v>-6.1400000000000003E-2</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="17">
         <v>191.072</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="17">
         <v>21.39</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1813,266 +1827,266 @@
         <v>9.8930000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E22" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E22" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E23">
         <f>20/3</f>
         <v>6.666666666666667</v>
       </c>
       <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G25" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="L25" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" t="s">
-        <v>61</v>
-      </c>
-      <c r="J25" s="25"/>
-      <c r="L25" s="26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="24">
+        <v>51</v>
+      </c>
+      <c r="C27" s="19">
         <v>0.5</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="24">
+        <v>51</v>
+      </c>
+      <c r="H27" s="19">
         <v>0.5</v>
       </c>
       <c r="I27">
         <v>11.74</v>
       </c>
       <c r="L27" t="s">
-        <v>55</v>
-      </c>
-      <c r="M27" s="24">
+        <v>51</v>
+      </c>
+      <c r="M27" s="19">
         <v>0.45</v>
       </c>
       <c r="N27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="34"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="27"/>
       <c r="C28">
         <f>10.7/20</f>
         <v>0.53499999999999992</v>
       </c>
-      <c r="F28" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="34"/>
+      <c r="F28" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="27"/>
       <c r="H28">
         <f>11.675/20</f>
         <v>0.58374999999999999</v>
       </c>
-      <c r="K28" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="L28" s="34"/>
+      <c r="K28" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28" s="27"/>
       <c r="M28">
         <f>13.3/20</f>
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" t="s">
         <v>60</v>
       </c>
-      <c r="G29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L29" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" t="s">
-        <v>64</v>
-      </c>
       <c r="L30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="19">
+        <v>0.45</v>
+      </c>
+      <c r="D31" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="24">
+      <c r="G31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="19">
         <v>0.45</v>
       </c>
-      <c r="D31" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="24">
-        <v>0.45</v>
-      </c>
       <c r="I31" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L31" t="s">
-        <v>55</v>
-      </c>
-      <c r="M31" s="24">
+        <v>51</v>
+      </c>
+      <c r="M31" s="19">
         <v>0.4</v>
       </c>
       <c r="N31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="34"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="27"/>
       <c r="C32">
         <f>12.4/20</f>
         <v>0.62</v>
       </c>
-      <c r="F32" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="34"/>
+      <c r="F32" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="27"/>
       <c r="H32">
         <f>13.176/20</f>
         <v>0.65880000000000005</v>
       </c>
-      <c r="K32" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="L32" s="34"/>
+      <c r="K32" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L32" s="27"/>
       <c r="M32">
         <f>14.8/20</f>
         <v>0.74</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="C39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>8 *1.2</f>
         <v>9.6</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="27">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
         <f>8.6*1.2</f>
         <v>10.319999999999999</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
         <v>77</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D45" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2087,4 +2101,353 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C3E270-438B-4BA7-BB0E-5AFFB906487D}">
+  <dimension ref="D3:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="46.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="G4" s="4">
+        <f>E4*F4</f>
+        <v>3.2</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>189</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:G17" si="0">E5*F5</f>
+        <v>189</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="37"/>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="43">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>79</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>49.99</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>49.99</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="37"/>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="29">
+        <v>1</v>
+      </c>
+      <c r="F8" s="30">
+        <v>33.99</v>
+      </c>
+      <c r="G8" s="30">
+        <f t="shared" si="0"/>
+        <v>33.99</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>43.99</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>43.99</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="37"/>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="26">
+        <v>429.99</v>
+      </c>
+      <c r="G10" s="4">
+        <v>429.99</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="29">
+        <v>1</v>
+      </c>
+      <c r="F11" s="25">
+        <v>24.99</v>
+      </c>
+      <c r="G11" s="25">
+        <v>24.99</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="39"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>65</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="37"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="29">
+        <v>4</v>
+      </c>
+      <c r="F13" s="30">
+        <v>22.99</v>
+      </c>
+      <c r="G13" s="30">
+        <f t="shared" si="0"/>
+        <v>91.96</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>175</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="37"/>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>64.989999999999995</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>64.989999999999995</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="37"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4">
+        <v>12.57</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="0"/>
+        <v>62.85</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="37"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9">
+        <f>+G4+G11+G5+G6+G7+G8+G9+G10+G12+G13+G17+G14+G15+G16</f>
+        <v>1412.94</v>
+      </c>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{A71CA281-0A96-4F2C-B0A0-7DE2B177E4E4}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{631C3AA5-0B9B-483E-A976-54A6F694ADD0}"/>
+    <hyperlink ref="H8" r:id="rId3" xr:uid="{7FE20C2A-4E15-4934-B377-57B536835672}"/>
+    <hyperlink ref="H9" r:id="rId4" xr:uid="{4F621558-0637-4847-A464-18E614672C37}"/>
+    <hyperlink ref="H5" r:id="rId5" xr:uid="{B24F3DCD-FE50-4DF6-8818-079BF2668E20}"/>
+    <hyperlink ref="H12" r:id="rId6" xr:uid="{CB22CC0E-8246-402F-86D4-D20E93214A89}"/>
+    <hyperlink ref="H13" r:id="rId7" xr:uid="{D9C68F91-91B6-4560-BBCF-1DE3C7BC7E96}"/>
+    <hyperlink ref="H14" r:id="rId8" xr:uid="{061272B6-396D-427B-8C82-9FD009452DB6}"/>
+    <hyperlink ref="H17" r:id="rId9" xr:uid="{0AA494B9-98BE-48F1-9193-92445E693832}"/>
+    <hyperlink ref="H10" r:id="rId10" xr:uid="{67F3049E-B6AE-4D68-AD78-5847EBE4CAD7}"/>
+    <hyperlink ref="H6" r:id="rId11" xr:uid="{F1689D1E-249E-4954-BC71-74AFA59A2C5D}"/>
+    <hyperlink ref="H15" r:id="rId12" xr:uid="{44D9F2BA-6E50-4533-B62C-5863A713EC71}"/>
+    <hyperlink ref="H16" r:id="rId13" xr:uid="{91AB1D07-FEA7-480F-9AC9-3E6229C04ADA}"/>
+    <hyperlink ref="H11" r:id="rId14" xr:uid="{A7609FF4-F633-490F-9878-05FA71BE6A10}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>